--- a/src/main/resources/excel/positionScore.xlsx
+++ b/src/main/resources/excel/positionScore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\performance-api\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D5E27-2967-4E1B-869B-931BF8872D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49BD609-D9B9-4AE5-B5B9-AB9B6D75ADCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="7080" windowWidth="18360" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>岗位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>员工工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,37 +380,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
